--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575C2E42-8657-4353-8138-7560CBBBCB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABED6704-BF2F-4CA3-AAF3-50DD178ED859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="531">
   <si>
     <t>IBTISAM ARIFA</t>
   </si>
@@ -1165,36 +1165,6 @@
     <t>MAR DLIYAH</t>
   </si>
   <si>
-    <t>foto\1.jpg</t>
-  </si>
-  <si>
-    <t>foto\2.jpg</t>
-  </si>
-  <si>
-    <t>foto\3.jpg</t>
-  </si>
-  <si>
-    <t>foto\4.jpg</t>
-  </si>
-  <si>
-    <t>foto\5.jpg</t>
-  </si>
-  <si>
-    <t>foto\6.jpg</t>
-  </si>
-  <si>
-    <t>foto\7.jpg</t>
-  </si>
-  <si>
-    <t>foto\8.jpg</t>
-  </si>
-  <si>
-    <t>foto\9.jpg</t>
-  </si>
-  <si>
-    <t>foto\10.jpg</t>
-  </si>
-  <si>
     <t>085880361781</t>
   </si>
   <si>
@@ -1559,13 +1529,109 @@
   </si>
   <si>
     <t>0135704989</t>
+  </si>
+  <si>
+    <t>12348.jpg</t>
+  </si>
+  <si>
+    <t>12349.jpg</t>
+  </si>
+  <si>
+    <t>12350.jpg</t>
+  </si>
+  <si>
+    <t>12370.jpg</t>
+  </si>
+  <si>
+    <t>12393.jpg</t>
+  </si>
+  <si>
+    <t>12416.jpg</t>
+  </si>
+  <si>
+    <t>12417.jpg</t>
+  </si>
+  <si>
+    <t>12418.jpg</t>
+  </si>
+  <si>
+    <t>12419.jpg</t>
+  </si>
+  <si>
+    <t>12499.jpg</t>
+  </si>
+  <si>
+    <t>12500.jpg</t>
+  </si>
+  <si>
+    <t>12501.jpg</t>
+  </si>
+  <si>
+    <t>12502.jpg</t>
+  </si>
+  <si>
+    <t>12503.jpg</t>
+  </si>
+  <si>
+    <t>12504.jpg</t>
+  </si>
+  <si>
+    <t>12505.jpg</t>
+  </si>
+  <si>
+    <t>12506.jpg</t>
+  </si>
+  <si>
+    <t>12507.jpg</t>
+  </si>
+  <si>
+    <t>12508.jpg</t>
+  </si>
+  <si>
+    <t>12509.jpg</t>
+  </si>
+  <si>
+    <t>12531.jpg</t>
+  </si>
+  <si>
+    <t>12532.jpg</t>
+  </si>
+  <si>
+    <t>12533.jpg</t>
+  </si>
+  <si>
+    <t>12534.jpg</t>
+  </si>
+  <si>
+    <t>12539.jpg</t>
+  </si>
+  <si>
+    <t>12549.jpg</t>
+  </si>
+  <si>
+    <t>12571.jpg</t>
+  </si>
+  <si>
+    <t>12572.jpg</t>
+  </si>
+  <si>
+    <t>12577.jpg</t>
+  </si>
+  <si>
+    <t>12592.jpg</t>
+  </si>
+  <si>
+    <t>12593.jpg</t>
+  </si>
+  <si>
+    <t>12594.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1972,11 +2038,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C1D3D1-E5DE-4EF5-B72A-D8CB90CD1CE1}">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Z39" sqref="Z39"/>
+    <sheetView tabSelected="1" topLeftCell="AA16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" customWidth="1"/>
@@ -2011,7 +2077,7 @@
     <col min="31" max="31" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>265</v>
       </c>
@@ -2106,12 +2172,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="15.95" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>365</v>
@@ -2123,10 +2189,10 @@
         <v>33</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>369</v>
@@ -2171,7 +2237,7 @@
         <v>6</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>92</v>
@@ -2192,15 +2258,15 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="8" t="s">
-        <v>377</v>
+        <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="15.95" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>242</v>
@@ -2212,10 +2278,10 @@
         <v>33</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>191</v>
@@ -2269,10 +2335,10 @@
         <v>46</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="AA3" s="5" t="s">
         <v>31</v>
@@ -2283,15 +2349,15 @@
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="8" t="s">
-        <v>378</v>
+        <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="15.95" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>49</v>
@@ -2303,10 +2369,10 @@
         <v>33</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>50</v>
@@ -2370,15 +2436,15 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="8" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="15.95" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>243</v>
@@ -2390,10 +2456,10 @@
         <v>33</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>83</v>
@@ -2459,15 +2525,15 @@
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="8" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="15.95" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>60</v>
@@ -2479,10 +2545,10 @@
         <v>33</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>61</v>
@@ -2491,7 +2557,7 @@
         <v>62</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>63</v>
@@ -2548,10 +2614,10 @@
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="8" t="s">
-        <v>381</v>
+        <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="15.95" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2568,16 +2634,16 @@
         <v>33</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>206</v>
@@ -2625,10 +2691,10 @@
         <v>6</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="9" t="s">
@@ -2637,10 +2703,10 @@
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="8" t="s">
-        <v>382</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="15.95" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2657,19 +2723,19 @@
         <v>33</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>61</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>61</v>
@@ -2696,7 +2762,7 @@
         <v>61</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="T8" s="8" t="s">
         <v>56</v>
@@ -2705,7 +2771,7 @@
         <v>6</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="W8" s="7" t="s">
         <v>56</v>
@@ -2726,15 +2792,15 @@
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="8" t="s">
-        <v>383</v>
+        <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="15.95" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>245</v>
@@ -2746,10 +2812,10 @@
         <v>33</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>61</v>
@@ -2806,7 +2872,7 @@
         <v>135</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AA9" s="5" t="s">
         <v>17</v>
@@ -2817,10 +2883,10 @@
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="8" t="s">
-        <v>384</v>
+        <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="15.95" customHeight="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2837,10 +2903,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>204</v>
@@ -2849,7 +2915,7 @@
         <v>205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>114</v>
@@ -2906,15 +2972,15 @@
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="8" t="s">
-        <v>385</v>
+        <v>507</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="15.95" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>247</v>
@@ -2926,10 +2992,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>195</v>
@@ -2938,7 +3004,7 @@
         <v>196</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>197</v>
@@ -2995,15 +3061,15 @@
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="8" t="s">
-        <v>386</v>
+        <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="15.95" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>250</v>
@@ -3015,16 +3081,16 @@
         <v>33</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>292</v>
@@ -3039,7 +3105,7 @@
         <v>301</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>5</v>
@@ -3072,10 +3138,10 @@
         <v>6</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AA12" s="5" t="s">
         <v>17</v>
@@ -3086,15 +3152,15 @@
       </c>
       <c r="AD12" s="9"/>
       <c r="AE12" s="8" t="s">
-        <v>377</v>
+        <v>509</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="15.95" customHeight="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>251</v>
@@ -3106,19 +3172,19 @@
         <v>33</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>61</v>
@@ -3175,10 +3241,10 @@
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="8" t="s">
-        <v>378</v>
+        <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="15.95" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3195,19 +3261,19 @@
         <v>7</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>183</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>184</v>
@@ -3266,10 +3332,10 @@
       </c>
       <c r="AD14" s="9"/>
       <c r="AE14" s="8" t="s">
-        <v>377</v>
+        <v>511</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="15.95" customHeight="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3286,7 +3352,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>373</v>
@@ -3298,7 +3364,7 @@
         <v>374</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>61</v>
@@ -3355,15 +3421,15 @@
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="8" t="s">
-        <v>378</v>
+        <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="15.95" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>249</v>
@@ -3375,10 +3441,10 @@
         <v>33</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>34</v>
@@ -3396,7 +3462,7 @@
         <v>12504</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>35</v>
@@ -3432,10 +3498,10 @@
         <v>6</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="Z16" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AA16" s="5" t="s">
         <v>31</v>
@@ -3446,10 +3512,10 @@
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="8" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="15.95" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3466,10 +3532,10 @@
         <v>33</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>170</v>
@@ -3478,7 +3544,7 @@
         <v>171</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>173</v>
@@ -3535,15 +3601,15 @@
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
       <c r="AE17" s="8" t="s">
-        <v>378</v>
+        <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="15.95" customHeight="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>252</v>
@@ -3555,16 +3621,16 @@
         <v>7</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>125</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>172</v>
@@ -3615,7 +3681,7 @@
         <v>128</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AA18" s="5" t="s">
         <v>31</v>
@@ -3624,10 +3690,10 @@
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="8" t="s">
-        <v>377</v>
+        <v>515</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="15.95" customHeight="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -3644,10 +3710,10 @@
         <v>7</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>162</v>
@@ -3656,7 +3722,7 @@
         <v>163</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>164</v>
@@ -3713,15 +3779,15 @@
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
       <c r="AE19" s="8" t="s">
-        <v>378</v>
+        <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="15.95" customHeight="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>223</v>
@@ -3733,10 +3799,10 @@
         <v>7</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>224</v>
@@ -3745,7 +3811,7 @@
         <v>224</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>225</v>
@@ -3802,10 +3868,10 @@
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
       <c r="AE20" s="8" t="s">
-        <v>377</v>
+        <v>517</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="15.95" customHeight="1">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3822,19 +3888,19 @@
         <v>7</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>61</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
@@ -3893,10 +3959,10 @@
         <v>361</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>378</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="15.95" customHeight="1">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3913,10 +3979,10 @@
         <v>7</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>105</v>
@@ -3982,10 +4048,10 @@
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="8" t="s">
-        <v>377</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="15.95" customHeight="1">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -4002,16 +4068,16 @@
         <v>7</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>9</v>
@@ -4073,10 +4139,10 @@
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="8" t="s">
-        <v>378</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="15.95" customHeight="1">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -4093,16 +4159,16 @@
         <v>241</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>139</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>172</v>
@@ -4162,15 +4228,15 @@
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="8" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="15.95" customHeight="1">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>367</v>
@@ -4182,10 +4248,10 @@
         <v>33</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>368</v>
@@ -4194,7 +4260,7 @@
         <v>368</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>61</v>
@@ -4221,7 +4287,7 @@
         <v>61</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>157</v>
@@ -4230,7 +4296,7 @@
         <v>6</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="W25" s="7" t="s">
         <v>92</v>
@@ -4251,10 +4317,10 @@
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="8" t="s">
-        <v>378</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="15.95" customHeight="1">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -4271,16 +4337,16 @@
         <v>7</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>216</v>
@@ -4295,7 +4361,7 @@
         <v>217</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>5</v>
@@ -4342,15 +4408,15 @@
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="8" t="s">
-        <v>377</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="15.95" customHeight="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>255</v>
@@ -4362,10 +4428,10 @@
         <v>7</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>39</v>
@@ -4433,10 +4499,10 @@
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="8" t="s">
-        <v>378</v>
+        <v>524</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" ht="15.95" customHeight="1">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -4453,10 +4519,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>122</v>
@@ -4513,7 +4579,7 @@
         <v>124</v>
       </c>
       <c r="Z28" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AA28" s="5" t="s">
         <v>31</v>
@@ -4522,10 +4588,10 @@
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="8" t="s">
-        <v>377</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" ht="15.95" customHeight="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -4542,10 +4608,10 @@
         <v>229</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>145</v>
@@ -4581,7 +4647,7 @@
         <v>79</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="T29" s="8"/>
       <c r="U29" s="7" t="s">
@@ -4611,15 +4677,15 @@
       </c>
       <c r="AD29" s="9"/>
       <c r="AE29" s="8" t="s">
-        <v>378</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" ht="15.95" customHeight="1">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>257</v>
@@ -4631,16 +4697,16 @@
         <v>229</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>230</v>
@@ -4700,10 +4766,10 @@
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
       <c r="AE30" s="8" t="s">
-        <v>377</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" ht="15.95" customHeight="1">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -4720,16 +4786,16 @@
         <v>7</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>61</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>113</v>
@@ -4791,10 +4857,10 @@
         <v>361</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>378</v>
+        <v>528</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" ht="15.95" customHeight="1">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -4811,16 +4877,16 @@
         <v>7</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>74</v>
@@ -4882,15 +4948,15 @@
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
       <c r="AE32" s="8" t="s">
-        <v>377</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" ht="15.95" customHeight="1">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>18</v>
@@ -4902,16 +4968,16 @@
         <v>7</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>19</v>
@@ -4971,7 +5037,7 @@
       <c r="AC33" s="12"/>
       <c r="AD33" s="12"/>
       <c r="AE33" s="8" t="s">
-        <v>378</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABED6704-BF2F-4CA3-AAF3-50DD178ED859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D011EFD6-177E-4C2A-8758-7E288221D0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="530">
   <si>
     <t>IBTISAM ARIFA</t>
   </si>
@@ -337,9 +337,6 @@
   </si>
   <si>
     <t>Habis pulang kerja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendapatkan ilmu yang bermanfa.at </t>
   </si>
   <si>
     <t>NAFISA IKLIMA AZZAHRA</t>
@@ -1531,100 +1528,100 @@
     <t>0135704989</t>
   </si>
   <si>
-    <t>12348.jpg</t>
-  </si>
-  <si>
-    <t>12349.jpg</t>
-  </si>
-  <si>
-    <t>12350.jpg</t>
-  </si>
-  <si>
-    <t>12370.jpg</t>
-  </si>
-  <si>
-    <t>12393.jpg</t>
-  </si>
-  <si>
-    <t>12416.jpg</t>
-  </si>
-  <si>
-    <t>12417.jpg</t>
-  </si>
-  <si>
-    <t>12418.jpg</t>
-  </si>
-  <si>
-    <t>12419.jpg</t>
-  </si>
-  <si>
-    <t>12499.jpg</t>
-  </si>
-  <si>
-    <t>12500.jpg</t>
-  </si>
-  <si>
-    <t>12501.jpg</t>
-  </si>
-  <si>
-    <t>12502.jpg</t>
-  </si>
-  <si>
-    <t>12503.jpg</t>
-  </si>
-  <si>
-    <t>12504.jpg</t>
-  </si>
-  <si>
-    <t>12505.jpg</t>
-  </si>
-  <si>
-    <t>12506.jpg</t>
-  </si>
-  <si>
-    <t>12507.jpg</t>
-  </si>
-  <si>
-    <t>12508.jpg</t>
-  </si>
-  <si>
-    <t>12509.jpg</t>
-  </si>
-  <si>
-    <t>12531.jpg</t>
-  </si>
-  <si>
-    <t>12532.jpg</t>
-  </si>
-  <si>
-    <t>12533.jpg</t>
-  </si>
-  <si>
-    <t>12534.jpg</t>
-  </si>
-  <si>
-    <t>12539.jpg</t>
-  </si>
-  <si>
-    <t>12549.jpg</t>
-  </si>
-  <si>
-    <t>12571.jpg</t>
-  </si>
-  <si>
-    <t>12572.jpg</t>
-  </si>
-  <si>
-    <t>12577.jpg</t>
-  </si>
-  <si>
-    <t>12592.jpg</t>
-  </si>
-  <si>
-    <t>12593.jpg</t>
-  </si>
-  <si>
-    <t>12594.jpg</t>
+    <t>1.jpg</t>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>5.jpg</t>
+  </si>
+  <si>
+    <t>6.jpg</t>
+  </si>
+  <si>
+    <t>7.jpg</t>
+  </si>
+  <si>
+    <t>8.jpg</t>
+  </si>
+  <si>
+    <t>9.jpg</t>
+  </si>
+  <si>
+    <t>10.jpg</t>
+  </si>
+  <si>
+    <t>11.jpg</t>
+  </si>
+  <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
+    <t>13.jpg</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
+  </si>
+  <si>
+    <t>16.jpg</t>
+  </si>
+  <si>
+    <t>17.jpg</t>
+  </si>
+  <si>
+    <t>18.jpg</t>
+  </si>
+  <si>
+    <t>19.jpg</t>
+  </si>
+  <si>
+    <t>20.jpg</t>
+  </si>
+  <si>
+    <t>21.jpg</t>
+  </si>
+  <si>
+    <t>22.jpg</t>
+  </si>
+  <si>
+    <t>23.jpg</t>
+  </si>
+  <si>
+    <t>24.jpg</t>
+  </si>
+  <si>
+    <t>25.jpg</t>
+  </si>
+  <si>
+    <t>26.jpg</t>
+  </si>
+  <si>
+    <t>27.jpg</t>
+  </si>
+  <si>
+    <t>28.jpg</t>
+  </si>
+  <si>
+    <t>29.jpg</t>
+  </si>
+  <si>
+    <t>30.jpg</t>
+  </si>
+  <si>
+    <t>31.jpg</t>
+  </si>
+  <si>
+    <t>32.jpg</t>
   </si>
 </sst>
 </file>
@@ -2038,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C1D3D1-E5DE-4EF5-B72A-D8CB90CD1CE1}">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2079,97 +2076,97 @@
   <sheetData>
     <row r="1" spans="1:31" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="AB1" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15.95" customHeight="1">
@@ -2177,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>32</v>
@@ -2189,16 +2186,16 @@
         <v>33</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>61</v>
@@ -2210,7 +2207,7 @@
         <v>12348</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>61</v>
@@ -2228,7 +2225,7 @@
         <v>61</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>56</v>
@@ -2237,7 +2234,7 @@
         <v>6</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>92</v>
@@ -2253,12 +2250,12 @@
       </c>
       <c r="AA2" s="5"/>
       <c r="AB2" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="15.95" customHeight="1">
@@ -2266,10 +2263,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1</v>
@@ -2278,37 +2275,37 @@
         <v>33</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L3" s="10">
         <v>12349</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>65</v>
@@ -2317,39 +2314,39 @@
         <v>43</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Y3" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z3" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="AA3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15.95" customHeight="1">
@@ -2357,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>49</v>
@@ -2369,10 +2366,10 @@
         <v>33</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>50</v>
@@ -2381,7 +2378,7 @@
         <v>50</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>10</v>
@@ -2390,7 +2387,7 @@
         <v>12350</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>51</v>
@@ -2436,7 +2433,7 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15.95" customHeight="1">
@@ -2444,10 +2441,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1</v>
@@ -2456,10 +2453,10 @@
         <v>33</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>83</v>
@@ -2477,7 +2474,7 @@
         <v>12370</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>86</v>
@@ -2495,7 +2492,7 @@
         <v>90</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>10</v>
@@ -2504,7 +2501,7 @@
         <v>91</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W5" s="7" t="s">
         <v>92</v>
@@ -2525,7 +2522,7 @@
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="15.95" customHeight="1">
@@ -2533,7 +2530,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>60</v>
@@ -2545,10 +2542,10 @@
         <v>33</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>61</v>
@@ -2557,7 +2554,7 @@
         <v>62</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>63</v>
@@ -2578,10 +2575,10 @@
         <v>65</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>66</v>
@@ -2614,7 +2611,7 @@
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="15.95" customHeight="1">
@@ -2625,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>1</v>
@@ -2634,19 +2631,19 @@
         <v>33</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>10</v>
@@ -2664,25 +2661,25 @@
         <v>5</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W7" s="7" t="s">
         <v>92</v>
@@ -2691,19 +2688,19 @@
         <v>6</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="15.95" customHeight="1">
@@ -2711,10 +2708,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>1</v>
@@ -2723,19 +2720,19 @@
         <v>33</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>61</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>61</v>
@@ -2744,7 +2741,7 @@
         <v>12417</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>61</v>
@@ -2762,7 +2759,7 @@
         <v>61</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T8" s="8" t="s">
         <v>56</v>
@@ -2771,7 +2768,7 @@
         <v>6</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W8" s="7" t="s">
         <v>56</v>
@@ -2787,12 +2784,12 @@
       </c>
       <c r="AA8" s="5"/>
       <c r="AB8" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="15.95" customHeight="1">
@@ -2800,10 +2797,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>32</v>
@@ -2812,46 +2809,46 @@
         <v>33</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>61</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L9" s="10">
         <v>12418</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>61</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>56</v>
@@ -2860,7 +2857,7 @@
         <v>46</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W9" s="7" t="s">
         <v>92</v>
@@ -2869,21 +2866,21 @@
         <v>46</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="15.95" customHeight="1">
@@ -2891,10 +2888,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>1</v>
@@ -2903,67 +2900,67 @@
         <v>7</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>205</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L10" s="10">
         <v>12419</v>
       </c>
       <c r="M10" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="Y10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="AA10" s="5" t="s">
         <v>17</v>
@@ -2972,7 +2969,7 @@
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="15.95" customHeight="1">
@@ -2980,10 +2977,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>1</v>
@@ -2992,67 +2989,67 @@
         <v>7</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="L11" s="10">
         <v>12499</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>100</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="Y11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="AA11" s="5" t="s">
         <v>31</v>
@@ -3061,7 +3058,7 @@
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="15.95" customHeight="1">
@@ -3069,10 +3066,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>32</v>
@@ -3081,55 +3078,55 @@
         <v>33</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L12" s="10">
         <v>12500</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>5</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U12" s="7" t="s">
         <v>69</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W12" s="7" t="s">
         <v>61</v>
@@ -3138,21 +3135,21 @@
         <v>6</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD12" s="9"/>
       <c r="AE12" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="15.95" customHeight="1">
@@ -3160,10 +3157,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>32</v>
@@ -3172,19 +3169,19 @@
         <v>33</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>61</v>
@@ -3211,7 +3208,7 @@
         <v>100</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>56</v>
@@ -3220,7 +3217,7 @@
         <v>6</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="W13" s="7" t="s">
         <v>45</v>
@@ -3232,7 +3229,7 @@
         <v>101</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="AA13" s="5" t="s">
         <v>31</v>
@@ -3241,7 +3238,7 @@
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.95" customHeight="1">
@@ -3249,10 +3246,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>32</v>
@@ -3261,46 +3258,46 @@
         <v>7</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="L14" s="10">
         <v>12502</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T14" s="7" t="s">
         <v>56</v>
@@ -3309,30 +3306,30 @@
         <v>69</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X14" s="7" t="s">
         <v>69</v>
       </c>
       <c r="Y14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AD14" s="9"/>
       <c r="AE14" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="15.95" customHeight="1">
@@ -3340,10 +3337,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>372</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>32</v>
@@ -3352,19 +3349,19 @@
         <v>7</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>374</v>
-      </c>
       <c r="I15" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>61</v>
@@ -3373,7 +3370,7 @@
         <v>12503</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>61</v>
@@ -3391,16 +3388,16 @@
         <v>61</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W15" s="7" t="s">
         <v>45</v>
@@ -3415,13 +3412,13 @@
         <v>61</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB15" s="13"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="15.95" customHeight="1">
@@ -3429,10 +3426,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>32</v>
@@ -3441,10 +3438,10 @@
         <v>33</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>34</v>
@@ -3453,28 +3450,28 @@
         <v>34</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L16" s="10">
         <v>12504</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>43</v>
@@ -3492,27 +3489,27 @@
         <v>38</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z16" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="AB16" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="15.95" customHeight="1">
@@ -3520,10 +3517,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>32</v>
@@ -3532,67 +3529,67 @@
         <v>33</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L17" s="10">
         <v>12505</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X17" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Y17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z17" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="AA17" s="5" t="s">
         <v>17</v>
@@ -3601,7 +3598,7 @@
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
       <c r="AE17" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="15.95" customHeight="1">
@@ -3609,10 +3606,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>32</v>
@@ -3621,55 +3618,55 @@
         <v>7</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L18" s="10">
         <v>12506</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>79</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U18" s="7" t="s">
         <v>69</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="W18" s="7" t="s">
         <v>92</v>
@@ -3678,10 +3675,10 @@
         <v>46</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AA18" s="5" t="s">
         <v>31</v>
@@ -3690,7 +3687,7 @@
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="15.95" customHeight="1">
@@ -3698,10 +3695,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>32</v>
@@ -3710,28 +3707,28 @@
         <v>7</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="J19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="L19" s="10">
         <v>12507</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>11</v>
@@ -3749,16 +3746,16 @@
         <v>79</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>69</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W19" s="7" t="s">
         <v>45</v>
@@ -3767,10 +3764,10 @@
         <v>69</v>
       </c>
       <c r="Y19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z19" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Z19" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="AA19" s="5" t="s">
         <v>31</v>
@@ -3779,7 +3776,7 @@
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
       <c r="AE19" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="15.95" customHeight="1">
@@ -3787,10 +3784,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>32</v>
@@ -3799,31 +3796,31 @@
         <v>7</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="L20" s="10">
         <v>12508</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>5</v>
@@ -3832,34 +3829,34 @@
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R20" s="7" t="s">
         <v>100</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>69</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="W20" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AA20" s="5" t="s">
         <v>17</v>
@@ -3868,7 +3865,7 @@
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
       <c r="AE20" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="15.95" customHeight="1">
@@ -3876,10 +3873,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>1</v>
@@ -3888,19 +3885,19 @@
         <v>7</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>61</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
@@ -3909,16 +3906,16 @@
         <v>12509</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>5</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>99</v>
@@ -3927,16 +3924,16 @@
         <v>79</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>69</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W21" s="7" t="s">
         <v>10</v>
@@ -3945,10 +3942,10 @@
         <v>91</v>
       </c>
       <c r="Y21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z21" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Z21" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="AA21" s="5" t="s">
         <v>31</v>
@@ -3956,10 +3953,10 @@
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="15.95" customHeight="1">
@@ -3967,10 +3964,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>1</v>
@@ -3979,16 +3976,16 @@
         <v>7</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>9</v>
@@ -4000,34 +3997,34 @@
         <v>12531</v>
       </c>
       <c r="M22" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>5</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>6</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W22" s="7" t="s">
         <v>92</v>
@@ -4036,10 +4033,10 @@
         <v>46</v>
       </c>
       <c r="Y22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Z22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="AA22" s="5" t="s">
         <v>17</v>
@@ -4048,7 +4045,7 @@
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="15.95" customHeight="1">
@@ -4056,10 +4053,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>1</v>
@@ -4068,16 +4065,16 @@
         <v>7</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>9</v>
@@ -4089,7 +4086,7 @@
         <v>12532</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>11</v>
@@ -4107,7 +4104,7 @@
         <v>13</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>14</v>
@@ -4116,7 +4113,7 @@
         <v>6</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W23" s="7" t="s">
         <v>14</v>
@@ -4134,12 +4131,12 @@
         <v>17</v>
       </c>
       <c r="AB23" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="15.95" customHeight="1">
@@ -4147,40 +4144,40 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L24" s="10">
         <v>12533</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>5</v>
@@ -4192,13 +4189,13 @@
         <v>41</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S24" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="T24" s="7" t="s">
         <v>56</v>
@@ -4207,7 +4204,7 @@
         <v>46</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W24" s="7" t="s">
         <v>61</v>
@@ -4219,7 +4216,7 @@
         <v>61</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA24" s="5" t="s">
         <v>17</v>
@@ -4228,7 +4225,7 @@
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="15.95" customHeight="1">
@@ -4236,10 +4233,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>1</v>
@@ -4248,19 +4245,19 @@
         <v>33</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>61</v>
@@ -4269,7 +4266,7 @@
         <v>12534</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>61</v>
@@ -4287,16 +4284,16 @@
         <v>61</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U25" s="7" t="s">
         <v>6</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="W25" s="7" t="s">
         <v>92</v>
@@ -4312,12 +4309,12 @@
       </c>
       <c r="AA25" s="5"/>
       <c r="AB25" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="15.95" customHeight="1">
@@ -4325,10 +4322,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>1</v>
@@ -4337,46 +4334,46 @@
         <v>7</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L26" s="10">
         <v>12539</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>5</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R26" s="7" t="s">
         <v>43</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T26" s="7" t="s">
         <v>56</v>
@@ -4385,30 +4382,30 @@
         <v>46</v>
       </c>
       <c r="V26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="W26" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="W26" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="X26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Y26" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="AB26" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="15.95" customHeight="1">
@@ -4416,10 +4413,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>32</v>
@@ -4428,10 +4425,10 @@
         <v>7</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>39</v>
@@ -4440,7 +4437,7 @@
         <v>40</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>10</v>
@@ -4449,10 +4446,10 @@
         <v>12549</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>5</v>
@@ -4467,7 +4464,7 @@
         <v>43</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>44</v>
@@ -4476,7 +4473,7 @@
         <v>6</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W27" s="7" t="s">
         <v>45</v>
@@ -4494,12 +4491,12 @@
         <v>17</v>
       </c>
       <c r="AB27" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="15.95" customHeight="1">
@@ -4507,10 +4504,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>1</v>
@@ -4519,55 +4516,55 @@
         <v>7</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>61</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L28" s="10">
         <v>12571</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>5</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R28" s="7" t="s">
         <v>100</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U28" s="7" t="s">
         <v>6</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W28" s="7" t="s">
         <v>92</v>
@@ -4576,10 +4573,10 @@
         <v>6</v>
       </c>
       <c r="Y28" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z28" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AA28" s="5" t="s">
         <v>31</v>
@@ -4588,7 +4585,7 @@
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="15.95" customHeight="1">
@@ -4596,65 +4593,65 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="J29" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="K29" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L29" s="10">
         <v>12572</v>
       </c>
       <c r="M29" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="N29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>79</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T29" s="8"/>
       <c r="U29" s="7" t="s">
         <v>46</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W29" s="7" t="s">
         <v>92</v>
@@ -4663,21 +4660,21 @@
         <v>46</v>
       </c>
       <c r="Y29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z29" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Z29" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="AA29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AD29" s="9"/>
       <c r="AE29" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="15.95" customHeight="1">
@@ -4685,67 +4682,67 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="L30" s="10">
         <v>12577</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="O30" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="Q30" s="7" t="s">
+      <c r="R30" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="R30" s="7" t="s">
+      <c r="S30" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="S30" s="7" t="s">
+      <c r="T30" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="T30" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="U30" s="7" t="s">
         <v>91</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W30" s="7" t="s">
         <v>10</v>
@@ -4754,10 +4751,10 @@
         <v>91</v>
       </c>
       <c r="Y30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z30" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Z30" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="AA30" s="5" t="s">
         <v>31</v>
@@ -4766,7 +4763,7 @@
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
       <c r="AE30" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="15.95" customHeight="1">
@@ -4774,10 +4771,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>1</v>
@@ -4786,46 +4783,46 @@
         <v>7</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>61</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="L31" s="10">
         <v>12592</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>100</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>56</v>
@@ -4834,7 +4831,7 @@
         <v>6</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W31" s="7" t="s">
         <v>92</v>
@@ -4843,10 +4840,10 @@
         <v>46</v>
       </c>
       <c r="Y31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z31" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Z31" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="AA31" s="5" t="s">
         <v>31</v>
@@ -4854,10 +4851,10 @@
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="15.95" customHeight="1">
@@ -4868,7 +4865,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>1</v>
@@ -4877,22 +4874,22 @@
         <v>7</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>74</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L32" s="10">
         <v>12593</v>
@@ -4916,7 +4913,7 @@
         <v>79</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T32" s="7" t="s">
         <v>80</v>
@@ -4925,7 +4922,7 @@
         <v>6</v>
       </c>
       <c r="V32" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W32" s="7" t="s">
         <v>45</v>
@@ -4943,12 +4940,12 @@
         <v>17</v>
       </c>
       <c r="AB32" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
       <c r="AE32" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="15.95" customHeight="1">
@@ -4956,7 +4953,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>18</v>
@@ -4968,16 +4965,16 @@
         <v>7</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H33" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="I33" s="15" t="s">
         <v>379</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>380</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>19</v>
@@ -4989,7 +4986,7 @@
         <v>12594</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>21</v>
@@ -5016,7 +5013,7 @@
         <v>28</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W33" s="7" t="s">
         <v>92</v>
@@ -5037,7 +5034,7 @@
       <c r="AC33" s="12"/>
       <c r="AD33" s="12"/>
       <c r="AE33" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
